--- a/sources/excel/元素表.xlsx
+++ b/sources/excel/元素表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>

--- a/sources/excel/元素表.xlsx
+++ b/sources/excel/元素表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,34 +62,34 @@
     <t>登录</t>
   </si>
   <si>
+    <t>登录按钮</t>
+  </si>
+  <si>
+    <t>定位器</t>
+  </si>
+  <si>
+    <t>locator("li").filter(has_text=re.compile(r"^登录$"))</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>get_by_role("textbox", name="请输入用户名")</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>get_by_role("textbox", name="请输入密码")</t>
+  </si>
+  <si>
+    <t>locator("#loginDialog div").get_by_text("登录")</t>
+  </si>
+  <si>
+    <t>gitee</t>
+  </si>
+  <si>
     <t>首页</t>
-  </si>
-  <si>
-    <t>登录按钮</t>
-  </si>
-  <si>
-    <t>定位器</t>
-  </si>
-  <si>
-    <t>locator("li").filter(has_text=re.compile(r"^登录$"))</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>get_by_role("textbox", name="请输入用户名")</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>get_by_role("textbox", name="请输入密码")</t>
-  </si>
-  <si>
-    <t>locator("#loginDialog div").get_by_text("登录")</t>
-  </si>
-  <si>
-    <t>gitee</t>
   </si>
   <si>
     <t>菜单-开源</t>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -1185,16 +1185,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1211,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1234,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1260,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1271,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -1329,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>27</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -1352,7 +1352,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>30</v>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -1375,7 +1375,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>34</v>

--- a/sources/excel/元素表.xlsx
+++ b/sources/excel/元素表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -44,94 +44,184 @@
     <t>元素名称</t>
   </si>
   <si>
-    <t>定位方式</t>
-  </si>
-  <si>
-    <t>表达式</t>
-  </si>
-  <si>
-    <t>下标</t>
+    <t>定位方式1</t>
+  </si>
+  <si>
+    <t>表达式1</t>
+  </si>
+  <si>
+    <t>下标1</t>
+  </si>
+  <si>
+    <t>定位方式2</t>
+  </si>
+  <si>
+    <t>表达式2</t>
+  </si>
+  <si>
+    <t>下标2</t>
+  </si>
+  <si>
+    <t>定位方式3</t>
+  </si>
+  <si>
+    <t>表达式3</t>
+  </si>
+  <si>
+    <t>AI提示词</t>
+  </si>
+  <si>
+    <t>下标3</t>
   </si>
   <si>
     <t>等待</t>
   </si>
   <si>
-    <t>玩安卓</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录按钮</t>
-  </si>
-  <si>
-    <t>定位器</t>
-  </si>
-  <si>
-    <t>locator("li").filter(has_text=re.compile(r"^登录$"))</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>get_by_role("textbox", name="请输入用户名")</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>get_by_role("textbox", name="请输入密码")</t>
-  </si>
-  <si>
-    <t>locator("#loginDialog div").get_by_text("登录")</t>
-  </si>
-  <si>
-    <t>gitee</t>
+    <t>百度</t>
   </si>
   <si>
     <t>首页</t>
   </si>
   <si>
-    <t>菜单-开源</t>
+    <t>搜索框</t>
   </si>
   <si>
     <t>XPATH</t>
   </si>
   <si>
-    <t>//input[@placeholder="搜开源"]</t>
-  </si>
-  <si>
-    <t>开源</t>
-  </si>
-  <si>
-    <t>开源搜索框</t>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>get_by_role("button", name="搜索")</t>
-  </si>
-  <si>
-    <t>开源列表</t>
-  </si>
-  <si>
-    <t>选择芒果测试平台</t>
-  </si>
-  <si>
-    <t>get_by_role("link", name="maopeng/芒果测试平台")</t>
-  </si>
-  <si>
-    <t>项目详情模块</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>获取项目名称</t>
-  </si>
-  <si>
-    <t>get_by_role("heading", name="MangoTestingPlatform 芒果测试平台")</t>
+    <t>//textarea[@id="chat-textarea"]</t>
+  </si>
+  <si>
+    <t>通用定位器</t>
+  </si>
+  <si>
+    <t>get_by_test_id("chat-textarea")</t>
+  </si>
+  <si>
+    <t>WEB_CSS</t>
+  </si>
+  <si>
+    <t>#chat-textarea</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>//span[@id="s-usersetting-top"]</t>
+  </si>
+  <si>
+    <t>get_by_text("设置")</t>
+  </si>
+  <si>
+    <t>#s-usersetting-top</t>
+  </si>
+  <si>
+    <t>百度一下</t>
+  </si>
+  <si>
+    <t>//button[@id="chat-submit-button"]</t>
+  </si>
+  <si>
+    <t>get_by_role("button", name="百度一下")</t>
+  </si>
+  <si>
+    <t>#chat-submit-button</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>//div/div/div/a[text()="图片"]</t>
+  </si>
+  <si>
+    <t>locator(".img-upload-icon_SRtjV")</t>
+  </si>
+  <si>
+    <t>#s-top-left&gt;a:nth-of-type(6)</t>
+  </si>
+  <si>
+    <t>搜索图片</t>
+  </si>
+  <si>
+    <t>///div[@id="app"]/div/div/div/div[3]/div[2]/div/form/span[3]</t>
+  </si>
+  <si>
+    <t>#app&gt;div&gt;div&gt;div&gt;div:nth-of-type(3)&gt;div:nth-of-type(2)&gt;div&gt;form&gt;span:nth-of-type(3)</t>
+  </si>
+  <si>
+    <t>粘贴图片至此</t>
+  </si>
+  <si>
+    <t>//div/div/div/span[text()="拖拽、Ctrl + V 粘贴图片至此"]</t>
+  </si>
+  <si>
+    <t>get_by_role("span", name="拖拽、Ctrl + V 粘贴图片至此")</t>
+  </si>
+  <si>
+    <t>#app&gt;div&gt;div&gt;div&gt;div:nth-of-type(3)&gt;div:nth-of-type(2)&gt;div:nth-of-type(2)&gt;div&gt;span</t>
+  </si>
+  <si>
+    <t>图片来源</t>
+  </si>
+  <si>
+    <t>//div/div/div/div[text()="图片来源"]</t>
+  </si>
+  <si>
+    <t>get_by_text("图片来源")</t>
+  </si>
+  <si>
+    <t>#app&gt;div&gt;div:nth-of-type(3)&gt;div&gt;div&gt;div</t>
+  </si>
+  <si>
+    <t>搜索结果</t>
+  </si>
+  <si>
+    <t>maopeng/芒果测试平台</t>
+  </si>
+  <si>
+    <t>//*[text()="maopeng/芒果测试平台"]</t>
+  </si>
+  <si>
+    <t>get_by_text("maopeng/芒果测试平台")</t>
+  </si>
+  <si>
+    <t>#\31  &gt; div &gt; div &gt; div &gt; div.title-wrapper_6E6PV &gt; div &gt; h3 &gt; a &gt; div &gt; div &gt; p &gt; span &gt; span &gt; span &gt; em</t>
+  </si>
+  <si>
+    <t>获取介绍</t>
+  </si>
+  <si>
+    <t>//span[@class="git-project-desc-text"]</t>
+  </si>
+  <si>
+    <t>locator(".git-project-desc-text")</t>
+  </si>
+  <si>
+    <t>#project-wrapper&gt;div:nth-of-type(3)&gt;div&gt;div&gt;div:nth-of-type(2)&gt;span</t>
+  </si>
+  <si>
+    <t>访问个人主页</t>
+  </si>
+  <si>
+    <t>//p/span/span/span[text()="maopeng (mao-peng) - Gitee.com"]</t>
+  </si>
+  <si>
+    <t>get_by_text("maopeng (mao-peng) - Gitee.com")</t>
+  </si>
+  <si>
+    <t>#3&gt;div&gt;div&gt;div&gt;div&gt;div&gt;h3&gt;a&gt;div&gt;div&gt;p&gt;span&gt;span&gt;span</t>
+  </si>
+  <si>
+    <t>maopeng/基于Pytest的UI和API测试框架</t>
+  </si>
+  <si>
+    <t>//div/div/div/a[text()="基于Pytest的UI和API测试框架"]</t>
+  </si>
+  <si>
+    <t>get_by_role("link", name="基于Pytest的UI和API测试框架")</t>
+  </si>
+  <si>
+    <t>#popular-pinned-projects&gt;div:nth-of-type(2)&gt;div&gt;div&gt;a</t>
   </si>
 </sst>
 </file>
@@ -787,14 +877,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,1030 +1213,1314 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="67" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4" style="1" customWidth="1"/>
-    <col min="10" max="14" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.14285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:16">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:16">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="J12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
+      <c r="M12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3"/>
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3"/>
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3"/>
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
       <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3"/>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
       <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3"/>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3"/>
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="3"/>
+      <c r="A114" s="4"/>
       <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
       <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3"/>
+      <c r="A116" s="4"/>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3"/>
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3"/>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
       <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3"/>
+      <c r="A124" s="4"/>
       <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
       <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="3"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3"/>
+      <c r="A127" s="4"/>
       <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="3"/>
+      <c r="A128" s="4"/>
       <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="3"/>
+      <c r="A129" s="4"/>
       <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="3"/>
+      <c r="A130" s="4"/>
       <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="3"/>
+      <c r="A132" s="4"/>
       <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="3"/>
+      <c r="A133" s="4"/>
       <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="3"/>
+      <c r="A134" s="4"/>
       <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="3"/>
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="3"/>
+      <c r="A136" s="4"/>
       <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="3"/>
+      <c r="A137" s="4"/>
       <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="3"/>
+      <c r="A138" s="4"/>
       <c r="B138" s="4"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="3"/>
+      <c r="A139" s="4"/>
       <c r="B139" s="4"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="3"/>
+      <c r="A140" s="4"/>
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="3"/>
+      <c r="A141" s="4"/>
       <c r="B141" s="4"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="3"/>
+      <c r="A142" s="4"/>
       <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="3"/>
+      <c r="A143" s="4"/>
       <c r="B143" s="4"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="3"/>
+      <c r="A144" s="4"/>
       <c r="B144" s="4"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="3"/>
+      <c r="A145" s="4"/>
       <c r="B145" s="4"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="3"/>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="3"/>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="3"/>
+      <c r="A148" s="4"/>
       <c r="B148" s="4"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="3"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="4"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="3"/>
+      <c r="A150" s="4"/>
       <c r="B150" s="4"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="3"/>
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="3"/>
+      <c r="A152" s="4"/>
       <c r="B152" s="4"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="3"/>
+      <c r="A153" s="4"/>
       <c r="B153" s="4"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="3"/>
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="3"/>
+      <c r="A155" s="4"/>
       <c r="B155" s="4"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="3"/>
+      <c r="A156" s="4"/>
       <c r="B156" s="4"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="3"/>
+      <c r="A157" s="4"/>
       <c r="B157" s="4"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="3"/>
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="3"/>
+      <c r="A159" s="4"/>
       <c r="B159" s="4"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="3"/>
+      <c r="A160" s="4"/>
       <c r="B160" s="4"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="3"/>
+      <c r="A161" s="4"/>
       <c r="B161" s="4"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="3"/>
+      <c r="A162" s="4"/>
       <c r="B162" s="4"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="3"/>
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="3"/>
+      <c r="A164" s="4"/>
       <c r="B164" s="4"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="3"/>
+      <c r="A165" s="4"/>
       <c r="B165" s="4"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="3"/>
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="3"/>
+      <c r="A167" s="4"/>
       <c r="B167" s="4"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="3"/>
+      <c r="A168" s="4"/>
       <c r="B168" s="4"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="3"/>
+      <c r="A169" s="4"/>
       <c r="B169" s="4"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="3"/>
+      <c r="A170" s="4"/>
       <c r="B170" s="4"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="3"/>
+      <c r="A171" s="4"/>
       <c r="B171" s="4"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="3"/>
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="3"/>
+      <c r="A173" s="4"/>
       <c r="B173" s="4"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="3"/>
+      <c r="A174" s="4"/>
       <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="3"/>
+      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="3"/>
+      <c r="A176" s="4"/>
       <c r="B176" s="4"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="3"/>
+      <c r="A177" s="4"/>
       <c r="B177" s="4"/>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="3"/>
+      <c r="A178" s="4"/>
       <c r="B178" s="4"/>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="3"/>
+      <c r="A179" s="4"/>
       <c r="B179" s="4"/>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="3"/>
+      <c r="A180" s="4"/>
       <c r="B180" s="4"/>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="3"/>
+      <c r="A181" s="4"/>
       <c r="B181" s="4"/>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="3"/>
+      <c r="A182" s="4"/>
       <c r="B182" s="4"/>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="3"/>
+      <c r="A183" s="4"/>
       <c r="B183" s="4"/>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="3"/>
+      <c r="A184" s="4"/>
       <c r="B184" s="4"/>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="3"/>
+      <c r="A185" s="4"/>
       <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="3"/>
+      <c r="A186" s="4"/>
       <c r="B186" s="4"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="3"/>
+      <c r="A187" s="4"/>
       <c r="B187" s="4"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="3"/>
+      <c r="A188" s="4"/>
       <c r="B188" s="4"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="3"/>
+      <c r="A189" s="4"/>
       <c r="B189" s="4"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="3"/>
+      <c r="A190" s="4"/>
       <c r="B190" s="4"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="3"/>
+      <c r="A191" s="4"/>
       <c r="B191" s="4"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="3"/>
+      <c r="A192" s="4"/>
       <c r="B192" s="4"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="3"/>
+      <c r="A193" s="4"/>
       <c r="B193" s="4"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="3"/>
+      <c r="A194" s="4"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="4"/>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="4"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
-    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B200">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
+      <formula1>"百度,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B194">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56 I2:I56 L2:L56">
+      <formula1>"XPATH,通用定位器,WEB_文本,WEB_占位符,WEB_CSS,安卓_description,安卓_bounds,安卓_resourceId"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F57:F194 I57:I194 L57:L194">
       <formula1>"定位器,XPATH,W_TestID,W_文本,W_占位符,W_标签,W_标题,W_ROLE,W_AIT_TEXT,W_TITLE,A_BOUNDS,A_百分比坐标点击"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sources/excel/元素表.xlsx
+++ b/sources/excel/元素表.xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
